--- a/系统架构/毕设测试.xlsx
+++ b/系统架构/毕设测试.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="267">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,10 +251,6 @@
 6.密码输入成功
 7.请求显示：401 Unauthorized
   message： Bad credentials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜黎黎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,10 +1360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,16 +1382,6 @@
   </si>
   <si>
     <t>Eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.postman中，选择请求类型为：get
-2.postman中，输入用户注册的URL：http://172.16.0.41:8761
-3.选择Authorization，点击type
-4.点击type选项，选择：Basic Auth
-5.输入已存在用户名：horcrux
-6.输入与此用户名对应得密码：hor66
-7.点击“send”，查看页面返回请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1421,6 +1399,21 @@
 6.密码输入成功
 7.请求返回405 Method Not Allowed
   message":"Request method 'POST' not supported"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统
+2.postman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.postman中，选择请求类型为：get
+2.postman中，输入用户注册的URL：http://172.16.0.41:8761
+3.选择Authorization，点击type
+4.点击type选项，选择：Basic Auth
+5.输入已存在用户名：horcrux
+6.输入与此用户名对应得密码：hor66
+7.点击“send”，查看页面返回请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1867,6 +1860,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1944,9 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2260,11 +2253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2280,9 +2273,9 @@
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -2291,1589 +2284,1433 @@
         <v>15</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>264</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+        <v>256</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>45</v>
+        <v>257</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>267</v>
+        <v>146</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+        <v>258</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>267</v>
+      <c r="H14" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+        <v>258</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="11" t="s">
+      <c r="H17" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="C18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
+      <c r="B31" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="B38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="28"/>
+      <c r="B40" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="28"/>
+      <c r="B42" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="H43" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="F44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="I44" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="F45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="F47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="F48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
-      <c r="B39" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
-      <c r="B40" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
-      <c r="B41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="27"/>
-      <c r="B42" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
-      <c r="B43" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
-      <c r="B44" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="84" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
-      <c r="B50" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="84" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
-      <c r="B51" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="G51" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I52" s="9"/>
     </row>
   </sheetData>
@@ -3929,108 +3766,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="33" t="s">
+      <c r="G3" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q2" s="32"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>203</v>
-      </c>
       <c r="O3" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -4713,129 +4550,129 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="45" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="38"/>
       <c r="D5" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="40"/>
+        <v>173</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="41"/>
       <c r="D6" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="40"/>
+        <v>174</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="41"/>
       <c r="L6" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4877,17 +4714,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="50"/>
+      <c r="A1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4895,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -4903,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -4911,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -4919,7 +4756,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4927,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -4935,7 +4772,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -4943,7 +4780,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4951,7 +4788,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
